--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B6CA9D3-69BE-43F6-B833-B33A5A167CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB642D-5599-474C-9CCE-D563BBB87D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="23040" windowHeight="12204" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="192">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,10 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>추가 공격, 추가 공격 후 디버프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 주변 1칸, 공격대상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -770,15 +766,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Start()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OnStruck()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>효과 메서드 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력치 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activate()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdditionalAttack()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyBattleStat()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyBattleStat(), AdditionalAttack()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 공격, 범위 공격 후 디버프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,7 +832,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +842,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +883,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1198,7 +1227,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>130</v>
@@ -1207,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>24</v>
@@ -1227,109 +1256,121 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>183</v>
       </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="J2" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>68</v>
+      <c r="A3" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>114</v>
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>188</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
@@ -1337,161 +1378,176 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>188</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>149</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>172</v>
+      <c r="A11" t="s">
+        <v>146</v>
       </c>
       <c r="B11" t="s">
         <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>147</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
         <v>144</v>
@@ -1499,214 +1555,246 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>137</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>179</v>
+      </c>
+      <c r="F12" t="s">
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="I12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
       </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>104</v>
+      <c r="A13" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>191</v>
+      </c>
+      <c r="F13" t="s">
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>141</v>
+      <c r="A14" t="s">
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
         <v>82</v>
       </c>
       <c r="I14" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
         <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" t="s">
+        <v>188</v>
+      </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="J15" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E16" t="s">
         <v>46</v>
       </c>
+      <c r="F16" t="s">
+        <v>188</v>
+      </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="J16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>116</v>
+      <c r="A17" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E18" t="s">
-        <v>49</v>
+        <v>182</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>184</v>
+        <v>187</v>
+      </c>
+      <c r="D19" t="s">
+        <v>129</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
@@ -1714,28 +1802,31 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J20" t="s">
         <v>34</v>
@@ -1743,25 +1834,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" t="s">
         <v>183</v>
       </c>
       <c r="E21" t="s">
-        <v>90</v>
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
         <v>76</v>
@@ -1769,25 +1863,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>189</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
       </c>
-      <c r="H22" t="s">
-        <v>66</v>
+      <c r="H22" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
         <v>40</v>
@@ -1795,526 +1895,589 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>137</v>
       </c>
       <c r="C23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
       </c>
       <c r="J23" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>86</v>
+      <c r="A24" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>73</v>
+        <v>172</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="J24" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="E25" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>189</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J25" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>176</v>
+      <c r="A26" t="s">
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
       </c>
       <c r="G26" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>178</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>162</v>
+      <c r="A27" t="s">
+        <v>62</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
       </c>
       <c r="G27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" t="s">
-        <v>167</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
-        <v>168</v>
+      <c r="A29" t="s">
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="F30" t="s">
+        <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>41</v>
+      <c r="A31" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C31" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>73</v>
+      </c>
+      <c r="F31" t="s">
+        <v>189</v>
       </c>
       <c r="G31" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>187</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H33" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>114</v>
+      </c>
+      <c r="F34" t="s">
+        <v>189</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J34" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>126</v>
+      <c r="A35" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>186</v>
+      </c>
+      <c r="F35" t="s">
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J35" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>98</v>
+      </c>
+      <c r="F36" t="s">
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="H36" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="I36" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="K36" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>146</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>189</v>
       </c>
       <c r="G37" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D39" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>180</v>
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="I39" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" t="s">
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
         <v>163</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>190</v>
       </c>
       <c r="G40" t="s">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="J40" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="4" t="s">
-        <v>153</v>
+      <c r="A41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
       </c>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="J41" t="s">
-        <v>144</v>
+        <v>76</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J42" t="s">
         <v>144</v>
       </c>
     </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" t="s">
+        <v>155</v>
+      </c>
+      <c r="J43" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K42">
-    <sortCondition ref="E2:E42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K44">
+    <sortCondition ref="F2:F44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DB642D-5599-474C-9CCE-D563BBB87D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8779F0-1456-4514-8E42-EEF038F3B8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1256,16 +1256,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -1274,30 +1271,27 @@
         <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>167</v>
+      <c r="A3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -1306,21 +1300,21 @@
         <v>188</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>42</v>
       </c>
       <c r="I3" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>137</v>
@@ -1338,10 +1332,10 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -1349,7 +1343,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>137</v>
@@ -1357,8 +1351,11 @@
       <c r="C5" t="s">
         <v>182</v>
       </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
         <v>188</v>
@@ -1367,18 +1364,21 @@
         <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
         <v>137</v>
@@ -1387,19 +1387,19 @@
         <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
         <v>40</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>137</v>
@@ -1415,28 +1415,31 @@
       <c r="C7" t="s">
         <v>182</v>
       </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="J7" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>137</v>
@@ -1445,27 +1448,27 @@
         <v>182</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="J8" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
         <v>137</v>
@@ -1474,27 +1477,27 @@
         <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>137</v>
@@ -1503,150 +1506,141 @@
         <v>182</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="J10" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
-        <v>157</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
         <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
         <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
         <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -1654,155 +1648,158 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="I15" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>187</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="4" t="s">
-        <v>141</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="H17" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>187</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>187</v>
       </c>
-      <c r="D19" t="s">
-        <v>129</v>
-      </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I19" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
         <v>136</v>
@@ -1814,56 +1811,56 @@
         <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
         <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I21" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="J21" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>137</v>
@@ -1871,31 +1868,28 @@
       <c r="C22" t="s">
         <v>182</v>
       </c>
-      <c r="D22" t="s">
-        <v>139</v>
-      </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
         <v>137</v>
@@ -1904,27 +1898,27 @@
         <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>171</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>104</v>
       </c>
       <c r="B24" t="s">
         <v>137</v>
@@ -1933,27 +1927,27 @@
         <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
         <v>137</v>
@@ -1961,37 +1955,37 @@
       <c r="C25" t="s">
         <v>182</v>
       </c>
-      <c r="E25" t="s">
-        <v>90</v>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s">
         <v>189</v>
@@ -2000,18 +1994,18 @@
         <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>137</v>
@@ -2020,7 +2014,7 @@
         <v>182</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
         <v>189</v>
@@ -2029,15 +2023,18 @@
         <v>26</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>128</v>
@@ -2046,10 +2043,10 @@
         <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F28" t="s">
         <v>189</v>
@@ -2058,94 +2055,88 @@
         <v>26</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C29" t="s">
         <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
         <v>189</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="J29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C30" t="s">
         <v>187</v>
       </c>
-      <c r="D30" t="s">
-        <v>131</v>
-      </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
         <v>189</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="I30" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="J30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>175</v>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>187</v>
       </c>
-      <c r="D31" t="s">
-        <v>176</v>
-      </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
         <v>189</v>
@@ -2154,245 +2145,260 @@
         <v>97</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>116</v>
+        <v>76</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C32" t="s">
-        <v>187</v>
-      </c>
-      <c r="D32" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>35</v>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="C33" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="D33" t="s">
+        <v>170</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="J33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="I34" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="J34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
-        <v>185</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>146</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>85</v>
+        <v>148</v>
+      </c>
+      <c r="H35" t="s">
+        <v>150</v>
+      </c>
+      <c r="I35" t="s">
+        <v>151</v>
+      </c>
+      <c r="J35" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C36" t="s">
         <v>187</v>
       </c>
+      <c r="D36" t="s">
+        <v>162</v>
+      </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G36" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="I36" t="s">
-        <v>99</v>
+        <v>156</v>
       </c>
       <c r="J36" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>28</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C37" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>48</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
         <v>189</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>173</v>
       </c>
       <c r="I38" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="J38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>9</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="C39" t="s">
         <v>187</v>
       </c>
+      <c r="D39" t="s">
+        <v>176</v>
+      </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
         <v>189</v>
       </c>
       <c r="G39" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="J39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="5" t="s">
         <v>161</v>
       </c>
@@ -2424,57 +2430,51 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="I41" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="J41" t="s">
-        <v>76</v>
-      </c>
-      <c r="K41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J42" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" t="s">
-        <v>144</v>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="E43" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K44">
-    <sortCondition ref="F2:F44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
+    <sortCondition ref="J2:J43"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2B3FF3-6555-467B-91A2-F14064C31D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293E894-B319-46CA-A1DC-BA45CED89FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4392" yWindow="4392" windowWidth="23040" windowHeight="12204" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1253,226 +1253,232 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>93</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
-        <v>184</v>
+    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>137</v>
@@ -1480,21 +1486,23 @@
       <c r="C9" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
@@ -1503,48 +1511,48 @@
     </row>
     <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>188</v>
@@ -1553,19 +1561,19 @@
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>170</v>
+    <row r="12" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>137</v>
@@ -1575,7 +1583,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>188</v>
@@ -1584,27 +1592,27 @@
         <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>46</v>
       </c>
@@ -1612,46 +1620,46 @@
         <v>187</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>34</v>
@@ -1660,100 +1668,100 @@
     </row>
     <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>107</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
+      <c r="E16" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
-        <v>141</v>
+    <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>157</v>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>128</v>
@@ -1762,95 +1770,95 @@
         <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>49</v>
+        <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
@@ -1860,71 +1868,75 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>188</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="E23" s="1" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>188</v>
@@ -1933,10 +1945,10 @@
         <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>76</v>
@@ -1945,7 +1957,7 @@
     </row>
     <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>137</v>
@@ -1955,28 +1967,28 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>137</v>
@@ -1985,124 +1997,122 @@
         <v>181</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>138</v>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>174</v>
+    <row r="28" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>160</v>
+      <c r="A29" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>137</v>
@@ -2110,32 +2120,30 @@
       <c r="C29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>36</v>
+      <c r="A30" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>137</v>
@@ -2145,36 +2153,36 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>187</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
@@ -2182,119 +2190,119 @@
         <v>187</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
+      <c r="A33" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>82</v>
+        <v>159</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>111</v>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>120</v>
+      <c r="A35" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>137</v>
@@ -2304,28 +2312,28 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>137</v>
@@ -2344,19 +2352,19 @@
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>137</v>
@@ -2364,7 +2372,9 @@
       <c r="C37" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2375,43 +2385,41 @@
         <v>148</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>144</v>
@@ -2419,8 +2427,8 @@
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>140</v>
+      <c r="A39" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>137</v>
@@ -2428,39 +2436,41 @@
       <c r="C39" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>144</v>
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>146</v>
+    <row r="40" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
@@ -2469,13 +2479,13 @@
         <v>187</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>144</v>
@@ -2483,43 +2493,27 @@
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>179</v>
-      </c>
+      <c r="A41" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>101</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2529,7 +2523,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>144</v>
@@ -2537,27 +2531,33 @@
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="A43" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" s="1"/>
-      <c r="I43" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K43">
-    <sortCondition ref="E2:E43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
+    <sortCondition ref="J2:J46"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3293E894-B319-46CA-A1DC-BA45CED89FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6D4A3-D77C-4F21-8E11-DC489F596D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -690,10 +690,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 체력의 4%, 8%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뮈라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +791,10 @@
   </si>
   <si>
     <t>범위 공격, 범위 공격 후 디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력의 2%, 4%(방어력 무시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,7 +1204,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1226,7 +1226,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>130</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -1261,7 +1261,7 @@
         <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>129</v>
@@ -1270,7 +1270,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -1294,14 +1294,14 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>79</v>
@@ -1325,14 +1325,14 @@
         <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>47</v>
@@ -1356,14 +1356,14 @@
         <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -1387,14 +1387,14 @@
         <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -1418,14 +1418,14 @@
         <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -1449,22 +1449,22 @@
         <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>57</v>
@@ -1484,7 +1484,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>139</v>
@@ -1493,7 +1493,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1517,14 +1517,14 @@
         <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
@@ -1548,14 +1548,14 @@
         <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
@@ -1579,14 +1579,14 @@
         <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
@@ -1608,7 +1608,7 @@
         <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>129</v>
@@ -1617,7 +1617,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>25</v>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>135</v>
@@ -1650,7 +1650,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -1674,14 +1674,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>26</v>
@@ -1705,14 +1705,14 @@
         <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>26</v>
@@ -1736,14 +1736,14 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -1767,7 +1767,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>129</v>
@@ -1776,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -1800,7 +1800,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>134</v>
@@ -1809,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>109</v>
@@ -1833,14 +1833,14 @@
         <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1864,14 +1864,14 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>97</v>
@@ -1897,7 +1897,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>158</v>
@@ -1906,7 +1906,7 @@
         <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>78</v>
@@ -1930,7 +1930,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>131</v>
@@ -1939,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
@@ -1963,14 +1963,14 @@
         <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>105</v>
@@ -1994,14 +1994,14 @@
         <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>78</v>
@@ -2025,14 +2025,14 @@
         <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
@@ -2056,14 +2056,14 @@
         <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
@@ -2087,14 +2087,14 @@
         <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>148</v>
@@ -2118,14 +2118,14 @@
         <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -2178,7 +2178,7 @@
         <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>134</v>
@@ -2187,7 +2187,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>109</v>
@@ -2211,14 +2211,14 @@
         <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -2242,16 +2242,16 @@
         <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>78</v>
@@ -2269,31 +2269,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>144</v>
@@ -2308,14 +2308,14 @@
         <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>142</v>
@@ -2339,14 +2339,14 @@
         <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>27</v>
@@ -2370,7 +2370,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>147</v>
@@ -2379,7 +2379,7 @@
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>148</v>
@@ -2397,29 +2397,29 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>144</v>
@@ -2434,7 +2434,7 @@
         <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>162</v>
@@ -2443,16 +2443,16 @@
         <v>163</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>144</v>
@@ -2461,31 +2461,31 @@
     </row>
     <row r="40" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>144</v>
@@ -2532,20 +2532,20 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD6D4A3-D77C-4F21-8E11-DC489F596D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CDC61A-A767-4EF1-B2D6-0EE62862E1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -630,10 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35% 공격력의 2회 추가 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>210% 공격력의 추가 공격. 효과를 받는 대상이 1개이면 240% 공격력.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,6 +791,10 @@
   </si>
   <si>
     <t>최대 체력의 2%, 4%(방어력 무시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35% 공격력의 2회 추가 공격 (본인 공격력도 -35%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1212,7 +1212,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="17.296875" customWidth="1"/>
-    <col min="4" max="4" width="42.3984375" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" customWidth="1"/>
     <col min="5" max="6" width="24.19921875" customWidth="1"/>
     <col min="7" max="7" width="13.09765625" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
@@ -1226,7 +1226,7 @@
         <v>133</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>130</v>
@@ -1235,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -1261,7 +1261,7 @@
         <v>128</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>129</v>
@@ -1270,7 +1270,7 @@
         <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -1294,14 +1294,14 @@
         <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>79</v>
@@ -1325,14 +1325,14 @@
         <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>47</v>
@@ -1356,14 +1356,14 @@
         <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -1387,14 +1387,14 @@
         <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>27</v>
@@ -1418,14 +1418,14 @@
         <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -1449,22 +1449,22 @@
         <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>57</v>
@@ -1484,7 +1484,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>139</v>
@@ -1493,7 +1493,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -1517,14 +1517,14 @@
         <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
@@ -1548,14 +1548,14 @@
         <v>137</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
@@ -1579,14 +1579,14 @@
         <v>137</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
@@ -1608,7 +1608,7 @@
         <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>129</v>
@@ -1617,7 +1617,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>25</v>
@@ -1641,7 +1641,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>135</v>
@@ -1650,7 +1650,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>27</v>
@@ -1674,14 +1674,14 @@
         <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>26</v>
@@ -1705,14 +1705,14 @@
         <v>72</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>26</v>
@@ -1736,14 +1736,14 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -1767,7 +1767,7 @@
         <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>129</v>
@@ -1776,7 +1776,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -1800,7 +1800,7 @@
         <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>134</v>
@@ -1809,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>109</v>
@@ -1833,14 +1833,14 @@
         <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>27</v>
@@ -1864,14 +1864,14 @@
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>97</v>
@@ -1897,16 +1897,16 @@
         <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>78</v>
@@ -1930,7 +1930,7 @@
         <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>131</v>
@@ -1939,7 +1939,7 @@
         <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
@@ -1963,14 +1963,14 @@
         <v>137</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>105</v>
@@ -1994,14 +1994,14 @@
         <v>137</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>78</v>
@@ -2025,14 +2025,14 @@
         <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>27</v>
@@ -2056,14 +2056,14 @@
         <v>137</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>27</v>
@@ -2087,14 +2087,14 @@
         <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>148</v>
@@ -2118,14 +2118,14 @@
         <v>137</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>26</v>
@@ -2149,7 +2149,7 @@
         <v>137</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -2178,7 +2178,7 @@
         <v>136</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>134</v>
@@ -2187,7 +2187,7 @@
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>109</v>
@@ -2211,14 +2211,14 @@
         <v>136</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -2236,31 +2236,31 @@
     </row>
     <row r="33" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>144</v>
@@ -2269,31 +2269,31 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>97</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>144</v>
@@ -2308,14 +2308,14 @@
         <v>137</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>142</v>
@@ -2339,20 +2339,20 @@
         <v>137</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>145</v>
@@ -2370,7 +2370,7 @@
         <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>147</v>
@@ -2379,16 +2379,16 @@
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>148</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>144</v>
@@ -2397,29 +2397,29 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>144</v>
@@ -2428,31 +2428,31 @@
     </row>
     <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>144</v>
@@ -2461,31 +2461,31 @@
     </row>
     <row r="40" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>144</v>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2504,7 +2504,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>144</v>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2523,7 +2523,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>144</v>
@@ -2532,20 +2532,20 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CDC61A-A767-4EF1-B2D6-0EE62862E1A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E248ADC-A89B-4372-AD29-7E8A7E201846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="196">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1회 추가 공격. 각 공격의 데미지는 통상의 50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소매치기의 단도세트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1회 추가 공격. 각 공격의 공격력은 통상의 50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50% 공격력의 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,7 +786,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35% 공격력의 2회 추가 공격 (본인 공격력도 -35%)</t>
+    <t>비 전투 상태인 적을 공격할 때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥냐리우스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 -50%, 공격속도 +100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 -65%, 공격속도 +200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeAttack()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선수필승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 +200%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,6 +906,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1201,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1223,19 +1246,19 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -1250,98 +1273,97 @@
         <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>186</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>80</v>
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
@@ -1350,190 +1372,184 @@
     </row>
     <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>135</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>69</v>
+        <v>107</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
@@ -1542,155 +1558,155 @@
     </row>
     <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="J12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
@@ -1699,865 +1715,904 @@
     </row>
     <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>10</v>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="4" t="s">
-        <v>46</v>
+      <c r="E25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>182</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>134</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A33" s="6" t="s">
-        <v>156</v>
+    <row r="33" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>160</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>155</v>
+        <v>51</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="6" t="s">
-        <v>172</v>
+    <row r="34" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>141</v>
+      <c r="A35" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="6" t="s">
-        <v>168</v>
+    <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D38" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A39" s="6" t="s">
-        <v>159</v>
+      <c r="A39" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="H40" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
+      <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="J44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K46">
-    <sortCondition ref="J2:J46"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K44">
+    <sortCondition ref="E2:E44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E248ADC-A89B-4372-AD29-7E8A7E201846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCB076-D9BC-4011-9515-934AA5CE540A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -706,10 +706,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>최대 체력의 3%(중첩 불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>왈멍멍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,6 +811,10 @@
   </si>
   <si>
     <t>공격력 +200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력의 3%(중첩 불가, 3초 유지)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1249,7 +1249,7 @@
         <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>128</v>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -1277,279 +1277,280 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
-        <v>91</v>
+      <c r="A2" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="I2" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>194</v>
+        <v>40</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>195</v>
+      <c r="H3" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>189</v>
+        <v>55</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
-        <v>180</v>
+    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>181</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>97</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>132</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>59</v>
+        <v>189</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
@@ -1558,440 +1559,444 @@
     </row>
     <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>22</v>
+        <v>174</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>166</v>
+        <v>40</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>127</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="4" t="s">
-        <v>45</v>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>139</v>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="E18" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>153</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>114</v>
+      <c r="A20" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>184</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="K20" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
+      <c r="E24" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>75</v>
@@ -2000,61 +2005,65 @@
     </row>
     <row r="25" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D25" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="E25" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K26" s="1"/>
     </row>
@@ -2066,7 +2075,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>129</v>
@@ -2075,7 +2084,7 @@
         <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>26</v>
@@ -2099,14 +2108,14 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>26</v>
@@ -2123,320 +2132,321 @@
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>170</v>
+      <c r="A29" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="G29" s="1" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>157</v>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>187</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="E32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
+      <c r="A33" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>190</v>
+        <v>26</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A34" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>118</v>
+      <c r="A35" s="7" t="s">
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>121</v>
+    <row r="36" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D36" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>124</v>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>183</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>109</v>
+      <c r="A38" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="K38" s="1"/>
     </row>
@@ -2448,20 +2458,20 @@
         <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>143</v>
@@ -2479,7 +2489,7 @@
         <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>145</v>
@@ -2488,7 +2498,7 @@
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>146</v>
@@ -2512,7 +2522,7 @@
         <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>165</v>
@@ -2521,7 +2531,7 @@
         <v>37</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>107</v>
@@ -2538,43 +2548,27 @@
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="A42" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2584,7 +2578,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>142</v>
@@ -2592,27 +2586,33 @@
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H44" s="1"/>
-      <c r="I44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>142</v>
-      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K44">
-    <sortCondition ref="E2:E44"/>
+    <sortCondition ref="J2:J44"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CCB076-D9BC-4011-9515-934AA5CE540A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6554FD11-8BB9-449C-85A9-AA04F1BEB02B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="4392" yWindow="4392" windowWidth="23040" windowHeight="12204" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="197">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -586,10 +586,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쇼맨쉽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>블런더버스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -815,6 +811,14 @@
   </si>
   <si>
     <t>최대 체력의 3%(중첩 불가, 3초 유지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 감소, 공격속도 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼맨십</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1226,8 +1230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1249,7 +1253,7 @@
         <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>128</v>
@@ -1258,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>24</v>
@@ -1284,7 +1288,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>137</v>
@@ -1293,7 +1297,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -1317,7 +1321,7 @@
         <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>127</v>
@@ -1326,7 +1330,7 @@
         <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>26</v>
@@ -1350,14 +1354,14 @@
         <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>27</v>
@@ -1381,14 +1385,14 @@
         <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>46</v>
@@ -1412,14 +1416,14 @@
         <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>78</v>
@@ -1443,14 +1447,14 @@
         <v>135</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>26</v>
@@ -1474,14 +1478,14 @@
         <v>135</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
@@ -1503,14 +1507,14 @@
         <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>27</v>
@@ -1534,20 +1538,20 @@
         <v>135</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>42</v>
@@ -1565,20 +1569,20 @@
         <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>51</v>
@@ -1596,22 +1600,22 @@
         <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>56</v>
@@ -1631,7 +1635,7 @@
         <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>132</v>
@@ -1640,7 +1644,7 @@
         <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>107</v>
@@ -1664,14 +1668,14 @@
         <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>26</v>
@@ -1695,14 +1699,14 @@
         <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>26</v>
@@ -1726,7 +1730,7 @@
         <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>127</v>
@@ -1735,7 +1739,7 @@
         <v>45</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>25</v>
@@ -1759,14 +1763,14 @@
         <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>26</v>
@@ -1790,7 +1794,7 @@
         <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>127</v>
@@ -1799,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>26</v>
@@ -1823,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>133</v>
@@ -1832,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>27</v>
@@ -1856,7 +1860,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
@@ -1885,14 +1889,14 @@
         <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
@@ -1916,14 +1920,14 @@
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>95</v>
@@ -1949,14 +1953,14 @@
         <v>135</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>103</v>
@@ -1980,14 +1984,14 @@
         <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>77</v>
@@ -2011,16 +2015,16 @@
         <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>115</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>77</v>
@@ -2044,14 +2048,14 @@
         <v>135</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>88</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -2075,7 +2079,7 @@
         <v>126</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>129</v>
@@ -2084,7 +2088,7 @@
         <v>72</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>26</v>
@@ -2108,14 +2112,14 @@
         <v>134</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>26</v>
@@ -2139,14 +2143,14 @@
         <v>135</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>27</v>
@@ -2170,14 +2174,14 @@
         <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>27</v>
@@ -2201,17 +2205,17 @@
         <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>125</v>
@@ -2232,7 +2236,7 @@
         <v>134</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>132</v>
@@ -2241,7 +2245,7 @@
         <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>107</v>
@@ -2259,297 +2263,297 @@
     </row>
     <row r="33" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H37" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="J37" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>182</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J40" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2559,16 +2563,16 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2578,29 +2582,29 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68E6D3-946A-4CDD-86D1-7D870EFBC6CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430ED76-487D-47F2-8A99-EB6E906F334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 -6%, 5중첩(30%)까지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>천상룡의 발톱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오버 부스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공격력 +25%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,10 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반작용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자신의 방어력의 20% 공격력의 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -919,6 +907,49 @@
   <si>
     <t>공격을 받을 때마다, 체력을 15 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반발력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepulsivePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 35% 증가합니다. 공격을 받을 때마다, 방어력의 20%만큼의 피해를 공격자에게 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverBoost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상의 체력이 30% 이하일 때 공격력이 25% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오버부스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -6%, 중첩가능, 2초 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 2초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1364,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1354,25 +1385,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -1387,10 +1418,10 @@
         <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1398,31 +1429,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1432,214 +1463,243 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>219</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M4" s="1"/>
+      <c r="N4" s="9" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D6" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="N6" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N7" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
@@ -1648,33 +1708,36 @@
         <v>40</v>
       </c>
       <c r="M8" s="1"/>
+      <c r="N8" s="9" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>40</v>
@@ -1683,27 +1746,27 @@
     </row>
     <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1717,17 +1780,17 @@
       </c>
       <c r="B11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
@@ -1749,23 +1812,23 @@
       </c>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
@@ -1775,7 +1838,7 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1784,23 +1847,23 @@
       </c>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>51</v>
@@ -1810,7 +1873,7 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -1819,25 +1882,25 @@
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>56</v>
@@ -1846,24 +1909,24 @@
         <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -1871,406 +1934,406 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
@@ -2279,19 +2342,19 @@
       </c>
       <c r="B27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
@@ -2313,19 +2376,19 @@
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
@@ -2347,19 +2410,19 @@
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>26</v>
@@ -2381,149 +2444,149 @@
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M33" s="1"/>
     </row>
@@ -2533,17 +2596,17 @@
       </c>
       <c r="B34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -2561,33 +2624,33 @@
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M35" s="1"/>
     </row>
@@ -2600,22 +2663,22 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
@@ -2634,17 +2697,17 @@
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>49</v>
@@ -2666,14 +2729,14 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>26</v>
@@ -2698,14 +2761,14 @@
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
@@ -2723,81 +2786,81 @@
     </row>
     <row r="40" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2805,14 +2868,14 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>26</v>
@@ -2824,7 +2887,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2836,19 +2899,19 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2860,14 +2923,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4430ED76-487D-47F2-8A99-EB6E906F334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCDB50-C66F-48A1-A8DA-3F169D1DD6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="233">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.15만큼의 공격력 보너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>축복</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +287,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입힌 데미지의 15%. 방어막은 방어력이 적용되지 않음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>별의 심장</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -950,6 +942,25 @@
   </si>
   <si>
     <t>적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>Bless</t>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buckshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1363,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1385,25 +1396,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -1418,10 +1429,10 @@
         <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1429,31 +1440,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1463,173 +1474,173 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1637,29 +1648,29 @@
         <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>59</v>
@@ -1669,7 +1680,7 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1677,29 +1688,29 @@
         <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>43</v>
@@ -1709,70 +1720,86 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M9" s="1"/>
+      <c r="N9" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="1"/>
+      <c r="N10" s="9" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
@@ -1780,17 +1807,17 @@
       </c>
       <c r="B11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
@@ -1812,23 +1839,23 @@
       </c>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>42</v>
@@ -1838,7 +1865,7 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1847,23 +1874,23 @@
       </c>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>51</v>
@@ -1873,7 +1900,7 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
@@ -1882,25 +1909,25 @@
       </c>
       <c r="B14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>56</v>
@@ -1909,24 +1936,24 @@
         <v>40</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -1934,406 +1961,406 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
@@ -2342,19 +2369,19 @@
       </c>
       <c r="B27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
@@ -2376,19 +2403,19 @@
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
@@ -2410,19 +2437,19 @@
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>26</v>
@@ -2444,149 +2471,149 @@
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="K31" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M33" s="1"/>
     </row>
@@ -2596,17 +2623,17 @@
       </c>
       <c r="B34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -2624,33 +2651,33 @@
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M35" s="1"/>
     </row>
@@ -2663,22 +2690,22 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
@@ -2697,17 +2724,17 @@
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>49</v>
@@ -2729,14 +2756,14 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>26</v>
@@ -2761,14 +2788,14 @@
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
@@ -2786,81 +2813,81 @@
     </row>
     <row r="40" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2868,14 +2895,14 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>26</v>
@@ -2887,7 +2914,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2899,19 +2926,19 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2923,14 +2950,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCDB50-C66F-48A1-A8DA-3F169D1DD6AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772B576-4F3C-48E7-9268-8BB32D622AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="250">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4데미지, 치명타 확률 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>정전기의 지팡이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -960,6 +956,78 @@
   </si>
   <si>
     <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticElectricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 4 공격력의 추가 공격을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualWield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면 60의 추가 데미지를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 공격대상 주위 1칸내에 있는 적들에게 공격력의 15%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 주위 1칸내에 있는 적에게 10만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeSteal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 12의 추가피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 26의 추가피해를 줍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1374,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1396,25 +1464,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -1429,10 +1497,10 @@
         <v>33</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1440,31 +1508,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -1474,486 +1542,509 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="M11" s="1"/>
+      <c r="N11" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
@@ -1961,439 +2052,479 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="L16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="D17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M17" s="1"/>
+      <c r="N17" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N18" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="L20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M20" s="1"/>
+      <c r="N20" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="L27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M27" s="1"/>
     </row>
@@ -2403,19 +2534,19 @@
       </c>
       <c r="B28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
@@ -2437,19 +2568,19 @@
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>26</v>
@@ -2471,149 +2602,149 @@
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M33" s="1"/>
     </row>
@@ -2623,17 +2754,17 @@
       </c>
       <c r="B34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -2651,33 +2782,33 @@
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M35" s="1"/>
     </row>
@@ -2690,22 +2821,22 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>15</v>
@@ -2717,33 +2848,33 @@
     </row>
     <row r="37" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1"/>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L37" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M37" s="1"/>
     </row>
@@ -2756,14 +2887,14 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>26</v>
@@ -2788,14 +2919,14 @@
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
@@ -2813,81 +2944,81 @@
     </row>
     <row r="40" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="1"/>
       <c r="D40" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="L40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -2895,14 +3026,14 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>26</v>
@@ -2914,7 +3045,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -2926,19 +3057,19 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -2950,14 +3081,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6772B576-4F3C-48E7-9268-8BB32D622AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5C01F-DAF0-4B8C-81FE-90A364AB7338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="254">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -841,10 +841,6 @@
     <t>공격속도가 200% 증가하지만 공격력은 65% 감소합니다.</t>
   </si>
   <si>
-    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 주변 1칸 범위에 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -925,14 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방어력 -6%, 중첩가능, 2초 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 2초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sweep</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -995,18 +983,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다, 공격대상 주위 1칸내에 있는 적들에게 공격력의 15%만큼 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShockWave</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다, 주위 1칸내에 있는 적에게 10만큼의 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1028,6 +1008,42 @@
   </si>
   <si>
     <t>적을 공격할 때마다, 26의 추가피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -6%, 5중첩가능, 2초 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 그 주위 1칸 내의 적들에게 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적에게 공격력의 15%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1442,8 +1458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1470,13 +1486,13 @@
         <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>163</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1511,7 +1527,7 @@
         <v>199</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>124</v>
@@ -1550,10 +1566,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>124</v>
@@ -1587,13 +1603,13 @@
     </row>
     <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>124</v>
@@ -1635,7 +1651,7 @@
         <v>193</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
@@ -1671,13 +1687,13 @@
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>125</v>
@@ -1711,15 +1727,15 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>125</v>
@@ -1738,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1756,10 +1772,10 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>125</v>
@@ -1796,10 +1812,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>125</v>
@@ -1836,10 +1852,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>125</v>
@@ -1858,7 +1874,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1874,10 +1890,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>125</v>
@@ -1896,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -1914,10 +1930,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>125</v>
@@ -1954,7 +1970,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>125</v>
@@ -1991,10 +2007,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>125</v>
@@ -2066,10 +2082,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>125</v>
@@ -2106,10 +2122,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>125</v>
@@ -2146,10 +2162,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>125</v>
@@ -2186,10 +2202,10 @@
         <v>112</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>125</v>
@@ -2226,10 +2242,10 @@
         <v>115</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>125</v>
@@ -2301,7 +2317,7 @@
         <v>198</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>125</v>
@@ -2342,7 +2358,7 @@
         <v>196</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>125</v>
@@ -2418,7 +2434,7 @@
         <v>192</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>125</v>
@@ -2460,7 +2476,7 @@
         <v>194</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>125</v>
@@ -2494,13 +2510,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="D27" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>169</v>
@@ -2527,14 +2548,22 @@
         <v>39</v>
       </c>
       <c r="M27" s="1"/>
+      <c r="N27" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D28" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>169</v>
@@ -2568,7 +2597,7 @@
       </c>
       <c r="B29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>169</v>
@@ -2602,7 +2631,7 @@
       </c>
       <c r="B30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>169</v>
@@ -2638,10 +2667,10 @@
         <v>191</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>169</v>
@@ -2680,10 +2709,10 @@
         <v>190</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>169</v>
@@ -2720,7 +2749,7 @@
       </c>
       <c r="B33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>169</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B5C01F-DAF0-4B8C-81FE-90A364AB7338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B836E1-17A5-4C19-83AD-49C3C22842A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="261">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,10 +474,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초당 12데미지, 방어력 -15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공인 성수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1044,6 +1040,38 @@
   </si>
   <si>
     <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 3초마다, 체력을 1 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejuvenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DivineProtection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 디버프는 2초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1458,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1480,25 +1508,25 @@
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>24</v>
@@ -1516,7 +1544,7 @@
         <v>87</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1524,25 +1552,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>102</v>
@@ -1558,7 +1586,7 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1566,23 +1594,23 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>26</v>
@@ -1598,33 +1626,33 @@
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>102</v>
@@ -1640,75 +1668,75 @@
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>102</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>26</v>
@@ -1724,7 +1752,7 @@
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -1732,29 +1760,29 @@
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1764,7 +1792,7 @@
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1772,23 +1800,23 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>45</v>
@@ -1804,7 +1832,7 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1812,23 +1840,23 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>26</v>
@@ -1844,7 +1872,7 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1852,29 +1880,29 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1882,7 +1910,7 @@
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1890,29 +1918,29 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -1922,7 +1950,7 @@
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -1930,29 +1958,29 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>41</v>
@@ -1962,7 +1990,7 @@
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -1970,26 +1998,26 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>50</v>
@@ -1999,7 +2027,7 @@
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2007,31 +2035,31 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>55</v>
@@ -2043,7 +2071,7 @@
         <v>94</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2053,10 +2081,10 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
@@ -2082,23 +2110,23 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>98</v>
@@ -2114,7 +2142,7 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -2122,23 +2150,23 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>72</v>
@@ -2154,7 +2182,7 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -2162,23 +2190,23 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>26</v>
@@ -2194,115 +2222,115 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>70</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>70</v>
@@ -2311,203 +2339,203 @@
     </row>
     <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="L26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
@@ -2515,25 +2543,25 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>26</v>
@@ -2549,7 +2577,7 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
@@ -2557,25 +2585,25 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>25</v>
@@ -2590,26 +2618,34 @@
         <v>34</v>
       </c>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N28" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D29" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>26</v>
@@ -2624,26 +2660,34 @@
         <v>34</v>
       </c>
       <c r="M29" s="1"/>
+      <c r="N29" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>253</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>26</v>
@@ -2658,119 +2702,127 @@
         <v>70</v>
       </c>
       <c r="M30" s="1"/>
+      <c r="N30" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="L32" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D33" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>109</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>70</v>
@@ -2786,14 +2838,14 @@
         <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>26</v>
@@ -2818,14 +2870,14 @@
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>106</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>27</v>
@@ -2850,16 +2902,16 @@
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>27</v>
@@ -2884,14 +2936,14 @@
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>73</v>
@@ -2916,14 +2968,14 @@
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>26</v>
@@ -2948,14 +3000,14 @@
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>26</v>
@@ -2980,14 +3032,14 @@
         <v>29</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
         <v>91</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>90</v>
@@ -3007,47 +3059,47 @@
     </row>
     <row r="41" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3055,14 +3107,14 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>26</v>
@@ -3074,7 +3126,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3086,19 +3138,19 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3110,14 +3162,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B836E1-17A5-4C19-83AD-49C3C22842A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871DBC2-FB4D-4ED4-A39F-1B2BCC1924AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -837,10 +837,6 @@
     <t>공격속도가 200% 증가하지만 공격력은 65% 감소합니다.</t>
   </si>
   <si>
-    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매 3번째 공격마다 최대 체력의 2%를 회복하고 그 2배의 피해를 적에게 줍니다. 적에게 주는 피해는 치명타가 발생하지 않는 대신, 적의 방어력을 무시합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -963,10 +959,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때 치명타가 발생하면 60의 추가 데미지를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1011,18 +1003,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방어력 -6%, 5중첩가능, 2초 지속</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FlameAura</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1072,6 +1056,22 @@
   </si>
   <si>
     <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.(디버프명 : 균열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면 60의 추가 데미지를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1514,13 +1514,13 @@
         <v>199</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>198</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>123</v>
@@ -1594,10 +1594,10 @@
         <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>123</v>
@@ -1631,13 +1631,13 @@
     </row>
     <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>123</v>
@@ -1679,7 +1679,7 @@
         <v>192</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>123</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>124</v>
@@ -1760,10 +1760,10 @@
         <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -1782,7 +1782,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1800,10 +1800,10 @@
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
@@ -1840,10 +1840,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -1880,10 +1880,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
@@ -1902,7 +1902,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1918,10 +1918,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -1940,7 +1940,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -1958,10 +1958,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -1998,7 +1998,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>124</v>
@@ -2030,15 +2030,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>124</v>
@@ -2110,10 +2110,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>124</v>
@@ -2150,10 +2150,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>124</v>
@@ -2190,10 +2190,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>124</v>
@@ -2230,10 +2230,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>124</v>
@@ -2270,10 +2270,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>124</v>
@@ -2345,7 +2345,7 @@
         <v>197</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>124</v>
@@ -2386,7 +2386,7 @@
         <v>195</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>124</v>
@@ -2462,7 +2462,7 @@
         <v>191</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>124</v>
@@ -2504,7 +2504,7 @@
         <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>124</v>
@@ -2538,18 +2538,18 @@
         <v>185</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>168</v>
@@ -2585,13 +2585,13 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>168</v>
@@ -2627,13 +2627,13 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>168</v>
@@ -2666,16 +2666,16 @@
     </row>
     <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>168</v>
@@ -2714,10 +2714,10 @@
         <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>168</v>
@@ -2756,10 +2756,10 @@
         <v>189</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>168</v>
@@ -2795,13 +2795,13 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>168</v>
@@ -2819,7 +2819,7 @@
         <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>110</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7871DBC2-FB4D-4ED4-A39F-1B2BCC1924AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680B17B-A85E-44A8-871A-4A1EBE92CC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="268">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -943,10 +943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다 4 공격력의 추가 공격을 합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4 공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -987,18 +983,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다, 12의 추가피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lava</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때마다, 26의 추가피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Immerse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1051,10 +1039,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 디버프는 2초 동안 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,15 +1047,58 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>적을 공격할 때 치명타가 발생하면 60의 추가 데미지를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrisisManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,8 +1513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1763,7 +1790,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -1782,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1921,7 +1948,7 @@
         <v>227</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -1940,7 +1967,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -1958,10 +1985,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -1998,7 +2025,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>124</v>
@@ -2035,10 +2062,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>124</v>
@@ -2110,10 +2137,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>124</v>
@@ -2150,10 +2177,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>124</v>
@@ -2190,10 +2217,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>124</v>
@@ -2230,10 +2257,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>124</v>
@@ -2270,10 +2297,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>124</v>
@@ -2504,7 +2531,7 @@
         <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>124</v>
@@ -2543,10 +2570,10 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>208</v>
@@ -2585,10 +2612,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>208</v>
@@ -2627,10 +2654,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>208</v>
@@ -2666,13 +2693,13 @@
     </row>
     <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>208</v>
@@ -2714,7 +2741,7 @@
         <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>208</v>
@@ -2790,15 +2817,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>209</v>
@@ -2819,7 +2846,7 @@
         <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>110</v>
@@ -2828,12 +2855,20 @@
         <v>70</v>
       </c>
       <c r="M33" s="1"/>
+      <c r="N33" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="34" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2860,12 +2895,20 @@
         <v>34</v>
       </c>
       <c r="M34" s="1"/>
+      <c r="N34" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
@@ -2892,12 +2935,20 @@
         <v>70</v>
       </c>
       <c r="M35" s="1"/>
+      <c r="N35" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="36" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
@@ -2926,6 +2977,9 @@
         <v>34</v>
       </c>
       <c r="M36" s="1"/>
+      <c r="N36" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="37" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8680B17B-A85E-44A8-871A-4A1EBE92CC65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A26D7A-5752-4ABA-B5C6-45AE17B67BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="274">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1100,6 +1100,29 @@
   <si>
     <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiphonStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 : 빠져나간 힘) (버프명 : 흡수한 힘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력의 20%만큼 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1537,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2981,11 +3004,16 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
@@ -3012,12 +3040,20 @@
         <v>39</v>
       </c>
       <c r="M37" s="1"/>
+      <c r="N37" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
@@ -3044,12 +3080,20 @@
         <v>34</v>
       </c>
       <c r="M38" s="1"/>
+      <c r="N38" s="9" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="39" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
@@ -3078,7 +3122,7 @@
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A26D7A-5752-4ABA-B5C6-45AE17B67BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B36B2-3334-40D4-90A7-B8576EE630A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="280">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -920,209 +920,233 @@
     <t>적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
   </si>
   <si>
+    <t>적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buckshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticElectricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualWield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeSteal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -6%, 5중첩가능, 2초 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 그 주위 1칸 내의 적들에게 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적에게 공격력의 15%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 3초마다, 체력을 1 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejuvenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DivineProtection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.(디버프명 : 균열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrisisManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiphonStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 : 빠져나간 힘) (버프명 : 흡수한 힘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력의 20%만큼 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
+  </si>
+  <si>
+    <t>무거움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAlways()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyStatBonuses(), RemoveStatBonuses(), OnAlways()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyStatBonuses(), RemoveStatBonuses()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Bless</t>
-  </si>
-  <si>
-    <t>적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buckshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaticElectricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DualWield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThunderBolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amplify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShockWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeSteal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lava</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Immerse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 -6%, 5중첩가능, 2초 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlameAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 그 주위 1칸 내의 적들에게 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적에게 공격력의 15%만큼 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 3초마다, 체력을 1 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rejuvenate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DivineProtection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.(디버프명 : 균열)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrisisManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MirrorImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiphonStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 : 빠져나간 힘) (버프명 : 흡수한 힘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력의 20%만큼 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavyWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도가 10% 감소합니다.</t>
   </si>
 </sst>
 </file>
@@ -1534,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1813,7 +1837,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -1832,7 +1856,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1890,10 +1914,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -1930,10 +1954,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
@@ -1952,7 +1976,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1968,10 +1992,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -1990,7 +2014,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -2008,10 +2032,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -2048,7 +2072,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>124</v>
@@ -2085,10 +2109,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>124</v>
@@ -2160,10 +2184,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>124</v>
@@ -2200,10 +2224,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>124</v>
@@ -2240,10 +2264,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>124</v>
@@ -2280,10 +2304,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>124</v>
@@ -2320,10 +2344,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>124</v>
@@ -2554,7 +2578,7 @@
         <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>124</v>
@@ -2593,16 +2617,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>119</v>
@@ -2635,16 +2659,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>119</v>
@@ -2677,16 +2701,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>119</v>
@@ -2716,19 +2740,19 @@
     </row>
     <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
@@ -2764,13 +2788,13 @@
         <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>146</v>
@@ -2812,7 +2836,7 @@
         <v>208</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>157</v>
@@ -2845,16 +2869,16 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>143</v>
@@ -2869,7 +2893,7 @@
         <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>110</v>
@@ -2887,16 +2911,16 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2924,19 +2948,19 @@
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2967,16 +2991,16 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>122</v>
@@ -3009,16 +3033,16 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -3044,21 +3068,21 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>168</v>
+        <v>275</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -3089,16 +3113,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -3155,7 +3179,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>184</v>
       </c>
@@ -3169,7 +3193,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -3195,7 +3219,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
         <v>166</v>
       </c>
@@ -3205,7 +3229,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3270,6 +3294,35 @@
         <v>187</v>
       </c>
     </row>
+    <row r="45" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" t="s">
+        <v>278</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
     <sortCondition ref="D2:D44"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B36B2-3334-40D4-90A7-B8576EE630A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000FAA9C-B83C-4621-B234-90C66C54BE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
@@ -917,236 +917,237 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buckshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StaticElectricity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DualWield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThunderBolt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amplify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShockWave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeSteal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lava</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immerse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력 -6%, 5중첩가능, 2초 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameAura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 그 주위 1칸 내의 적들에게 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적에게 공격력의 15%만큼 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 물약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 3초마다, 체력을 1 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedPotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rejuvenate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DivineProtection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.(디버프명 : 균열)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrisisManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Execution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MirrorImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
+  </si>
+  <si>
+    <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SiphonStrength</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 : 빠져나간 힘) (버프명 : 흡수한 힘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfDefense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력의 20%만큼 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
+  </si>
+  <si>
+    <t>무거움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnAlways()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyStatBonuses(), RemoveStatBonuses(), OnAlways()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyStatBonuses(), RemoveStatBonuses()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeavyWeight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 속도가 10% 감소합니다.</t>
+  </si>
+  <si>
     <t>적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>적을 공격할 때마다 입힌 피해의 12%에 해당하는 방어막을 얻습니다. 방어막은 3초 동안 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리가 1 증가합니다. 가까이 있는 적을 공격할 때 추가 공격력을 얻습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buckshot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사정거리 +1, (나의 최대 사정거리-공격대상과의 거리)*0.1만큼의 공격력 보너스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StaticElectricity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4 공격력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DualWield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격속도가 100% 증가하지만 공격력이 50% 감소합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThunderBolt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amplify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShockWave</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 입힌 데미지의 12%만큼의 체력을 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeSteal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blaze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lava</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Immerse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력 -6%, 5중첩가능, 2초 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlameAura</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 개시 시, 그 후 7번째 공격마다 얼음 마법을 시전하여 공격 대상과 그 주위 1칸 내의 적들에게 공격력의 210%(대상이 하나일 때는 240%)의 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 공격대상 주위 1칸 내의 모든 적에게 공격력의 15%만큼 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 주위 1칸 내의 모든 적에게 10만큼의 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 주위 1칸 내의 모든 적에게 공격력의 8%만큼의 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 물약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 3초마다, 체력을 1 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RedPotion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rejuvenate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 잃은 체력의 1.5%를 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DivineProtection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>초당 12데미지, 방어력 -15, 2초 지속(중첩 불가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다 방어력을 6% 감소시키는 디버프를 남깁니다. 디버프는 최대 5번까지 중첩되며 2초간 지속됩니다.(디버프명 : 균열)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 시작 후 1초가 지날 때마다 공격속도가 5% 증가하는 버프를 얻습니다. 버프는 최대 5번까지 중첩되며, 2초간 지속됩니다. (버프명 : 몰입)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다 주위 1칸 내의 모든 적에게 공격력의 10%(대상이 하나일 때는 15%)만큼 피해를 줍니다. 준 피해의 양이 하나 최대체력의 12%가 될 때마다 주위 1칸 내의 모든 적에게 공격력의 170% 피해를 주고 방어력을 15% 감소시키는 디버프를 남깁니다. 디버프는 4초간 지속됩니다. (디버프명 : 감전)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매 1초마다, 주위 1칸 내의 모든 적에게 12만큼의 피해를 주고 방어력을 15 감소시키는 디버프를 남깁니다. 피해는 적의 방어력을 무시하며, 디버프는 2초 동안 지속됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrisisManagement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력이 20% 이하일 때, 방어력이 75 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Execution</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 대상의 체력이 20% 이하일 때 공격력이 50% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MirrorImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때 치명타가 발생하면, 60의 추가 피해를 주고 적의 방어력을 10 감소시키는 디버프를 남깁니다. 디버프는 3초간 지속됩니다. (디버프명 : 저릿저릿)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 12의 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 26의 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적을 공격할 때마다, 4의 추가 피해를 줍니다.</t>
-  </si>
-  <si>
-    <t>적을 공격할 때 치명타가 발생하면, 공격력의 50%만큼 추가 피해를 줍니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SiphonStrength</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>힘 흡수(SiphonStrength) : 주위 1칸 내의 모든 적 공격력의 10%를 흡수합니다. (디버프 명 : 빠져나간 힘) (버프명 : 흡수한 힘)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfDefense</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어력의 20%만큼 공격력이 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잃은 체력 50당 공격 속도가 1% 증가합니다. 최대치는 20%입니다.</t>
-  </si>
-  <si>
-    <t>무거움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnAlways()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplyStatBonuses(), RemoveStatBonuses(), OnAlways()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplyStatBonuses(), RemoveStatBonuses()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bless</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HeavyWeight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 속도가 10% 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1560,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1837,7 +1838,7 @@
         <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -1856,7 +1857,7 @@
         <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>58</v>
@@ -1877,7 +1878,7 @@
         <v>220</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>221</v>
+        <v>279</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
@@ -1914,10 +1915,10 @@
         <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -1954,10 +1955,10 @@
         <v>59</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
@@ -1976,7 +1977,7 @@
         <v>26</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
@@ -1992,10 +1993,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -2014,7 +2015,7 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>38</v>
@@ -2032,10 +2033,10 @@
         <v>40</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -2072,7 +2073,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>124</v>
@@ -2109,10 +2110,10 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>124</v>
@@ -2184,10 +2185,10 @@
         <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>124</v>
@@ -2224,10 +2225,10 @@
         <v>71</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>124</v>
@@ -2264,10 +2265,10 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>124</v>
@@ -2304,10 +2305,10 @@
         <v>111</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>124</v>
@@ -2344,10 +2345,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>124</v>
@@ -2578,7 +2579,7 @@
         <v>193</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>124</v>
@@ -2617,16 +2618,16 @@
         <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>119</v>
@@ -2659,16 +2660,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>119</v>
@@ -2701,16 +2702,16 @@
         <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>119</v>
@@ -2740,19 +2741,19 @@
     </row>
     <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>120</v>
@@ -2788,13 +2789,13 @@
         <v>190</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>146</v>
@@ -2836,7 +2837,7 @@
         <v>208</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>157</v>
@@ -2869,16 +2870,16 @@
         <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>143</v>
@@ -2893,7 +2894,7 @@
         <v>72</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>110</v>
@@ -2911,16 +2912,16 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
@@ -2948,19 +2949,19 @@
     </row>
     <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
@@ -2991,10 +2992,10 @@
         <v>13</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -3033,16 +3034,16 @@
         <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
@@ -3073,16 +3074,16 @@
         <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
@@ -3113,16 +3114,16 @@
         <v>9</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
@@ -3193,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
@@ -3229,7 +3230,7 @@
         <v>29</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
@@ -3296,19 +3297,19 @@
     </row>
     <row r="45" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>167</v>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000FAA9C-B83C-4621-B234-90C66C54BE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0E28D-5144-4268-8D0A-1DD63F2B7B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="285">
   <si>
     <t>수치</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1147,6 +1147,26 @@
   </si>
   <si>
     <t>적을 공격할 때마다 공격 대상 양 옆의 적에게 공격력의 35%만큼 피해를 줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 전환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifeTap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 체력이 20% 감소합니다. 감소한 최대 체력의 15%만큼 공격력이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대체력 -20%, 공격력 +최대체력의 3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 전환기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1559,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1622,181 +1642,179 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>202</v>
+    <row r="5" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>124</v>
@@ -1804,23 +1822,21 @@
       <c r="E6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>63</v>
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>39</v>
@@ -1830,15 +1846,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>124</v>
@@ -1848,19 +1864,19 @@
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>238</v>
+        <v>84</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>39</v>
@@ -1872,13 +1888,13 @@
     </row>
     <row r="8" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>279</v>
+        <v>222</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>124</v>
@@ -1888,20 +1904,18 @@
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1910,15 +1924,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>124</v>
@@ -1928,19 +1942,19 @@
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>39</v>
@@ -1952,13 +1966,13 @@
     </row>
     <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>124</v>
@@ -1968,18 +1982,20 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="K10" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="L10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1990,13 +2006,10 @@
     </row>
     <row r="11" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>124</v>
@@ -2015,10 +2028,10 @@
         <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>39</v>
@@ -2028,15 +2041,15 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="87" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>228</v>
+        <v>261</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>124</v>
@@ -2044,9 +2057,11 @@
       <c r="E12" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>169</v>
@@ -2055,205 +2070,208 @@
         <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="N12" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>229</v>
+    <row r="13" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>272</v>
+      </c>
+      <c r="B13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>278</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>275</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>37</v>
+        <v>167</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>124</v>
+        <v>66</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="4" t="s">
-        <v>44</v>
+      <c r="G17" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="9" t="s">
@@ -2262,23 +2280,23 @@
     </row>
     <row r="18" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>170</v>
@@ -2287,36 +2305,35 @@
         <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>37</v>
       </c>
@@ -2327,13 +2344,13 @@
         <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="9" t="s">
@@ -2342,38 +2359,40 @@
     </row>
     <row r="20" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="9" t="s">
@@ -2381,97 +2400,95 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>117</v>
+      <c r="A21" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="M21" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="8" t="s">
-        <v>181</v>
+      <c r="J22" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>203</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>170</v>
@@ -2480,175 +2497,166 @@
         <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:14" ht="87" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="1"/>
+        <v>273</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>143</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>201</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>173</v>
+        <v>107</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>240</v>
-      </c>
+    <row r="26" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1" t="s">
         <v>124</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>133</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="9" t="s">
@@ -2657,40 +2665,38 @@
     </row>
     <row r="28" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="9" t="s">
@@ -2699,25 +2705,23 @@
     </row>
     <row r="29" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>170</v>
@@ -2726,52 +2730,50 @@
         <v>26</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>244</v>
+        <v>111</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>70</v>
@@ -2781,42 +2783,40 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>253</v>
+    <row r="31" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>146</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="9" t="s">
@@ -2824,80 +2824,68 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A32" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>205</v>
-      </c>
+      <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>157</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="87" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>70</v>
@@ -2907,227 +2895,232 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F34" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>257</v>
+        <v>184</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>265</v>
+    <row r="36" spans="1:14" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A36" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>253</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>169</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>267</v>
+    <row r="37" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="G37" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>170</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>158</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>269</v>
+    <row r="38" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A38" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>31</v>
+      <c r="J38" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M38" s="1"/>
+        <v>130</v>
+      </c>
       <c r="N38" s="9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>271</v>
+    <row r="39" spans="1:14" ht="87" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>170</v>
@@ -3136,81 +3129,88 @@
         <v>26</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="1"/>
+      <c r="N39" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>200</v>
+        <v>130</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="87" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F41" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G41" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>130</v>
@@ -3220,60 +3220,93 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+    <row r="42" spans="1:14" ht="87" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D42" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F42" s="1"/>
+        <v>163</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>133</v>
+      </c>
       <c r="G42" s="1" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
+      <c r="N42" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="K43" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>130</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A44" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3285,7 +3318,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>130</v>
@@ -3295,38 +3328,63 @@
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>272</v>
-      </c>
-      <c r="B45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D45" s="1" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A47" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N44">
-    <sortCondition ref="D2:D44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N46">
+    <sortCondition ref="L2:L46"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/스킬 정리시트.xlsx
+++ b/Documents/스킬 정리시트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\dungeontycoon\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Workspace\DungeonTycoon\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A0E28D-5144-4268-8D0A-1DD63F2B7B3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB25F2EE-CA6D-446F-9FB1-8CC595EE66F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8964" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{4E6108CF-2D64-4829-BB95-F44359F74968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1581,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF457FC-3F16-4162-AAFC-4292C4AB5A29}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
